--- a/biology/Mycologie/Agaric_des_trottoirs/Agaric_des_trottoirs.xlsx
+++ b/biology/Mycologie/Agaric_des_trottoirs/Agaric_des_trottoirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agaric des trottoirs (Agaricus bitorquis) est une espèce de champignons basidiomycètes comestibles, de la famille des Agaricaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Fiche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille : Agaricacées
 Synonyme : Psalliota edulis
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est facile à reconnaître en raison de son anneau caractéristique et de son habitat bien particulier.
 L'anneau sur son pied est en effet à double bord: à la fois ascendant - comme une chaussette - et descendant - comme une jupe -, rappelant, chez l'adulte, la jante d'une roue de voiture.
@@ -581,7 +597,9 @@
           <t>Habitat et saison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon pousse sur les sols très durs et piétinés, aux abords des chemins, voire au milieu d'un trottoir ou d'une allée goudronnée dont il perce le bitume.
 On le rencontre surtout en automne mais aussi lors de printemps pluvieux.
@@ -614,7 +632,9 @@
           <t>Risque de confusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat de l'agaric des trottoirs limite beaucoup les risques de confusion.
 Seul l'agaric champêtre, ou rosé-des-près (Agaricus campestris), se trouve parfois sur la terre nue lui aussi.
